--- a/requisitos/requisitos_tereverde.xlsx
+++ b/requisitos/requisitos_tereverde.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PEDRO\Desktop\PROJETO MVP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D595457-9DD3-4995-9306-E6ECC2A59D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAD49278-E96D-4B10-ABCB-1B5A91BFAFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-144" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="58">
   <si>
     <t>Categoria</t>
   </si>
@@ -184,6 +184,21 @@
   </si>
   <si>
     <t>NÃO - PADRÃO</t>
+  </si>
+  <si>
+    <t>RF05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apresentar API Clima tempo no centro da página principal, que servirá para para interagir com status das trilhas. </t>
+  </si>
+  <si>
+    <t>RF06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deve apresentar a tela principal com carrossel de fotos dos parques. </t>
+  </si>
+  <si>
+    <t>INTERNO</t>
   </si>
 </sst>
 </file>
@@ -220,7 +235,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,6 +284,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -310,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -342,6 +363,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,10 +669,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,13 +721,13 @@
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="E2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -722,13 +744,13 @@
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="12" t="s">
+      <c r="E3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -743,15 +765,15 @@
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -765,16 +787,16 @@
       <c r="C5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="12" t="s">
+      <c r="D5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -782,45 +804,45 @@
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>26</v>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>49</v>
+        <v>54</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>27</v>
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -832,18 +854,18 @@
         <v>10</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -855,18 +877,18 @@
         <v>10</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -878,65 +900,65 @@
         <v>10</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>51</v>
+      <c r="E12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -947,19 +969,19 @@
         <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>51</v>
+        <v>18</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -970,19 +992,19 @@
         <v>5</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>49</v>
+        <v>20</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -993,19 +1015,19 @@
         <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>49</v>
+        <v>22</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1016,65 +1038,65 @@
         <v>5</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>51</v>
+        <v>24</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>40</v>
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>41</v>
+      <c r="B18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>49</v>
+        <v>25</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1085,19 +1107,19 @@
         <v>10</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1108,25 +1130,71 @@
         <v>10</v>
       </c>
       <c r="C20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="E22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/requisitos/requisitos_tereverde.xlsx
+++ b/requisitos/requisitos_tereverde.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PEDRO\Desktop\PROJETO MVP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAD49278-E96D-4B10-ABCB-1B5A91BFAFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FA2F6D6-0E28-43CF-9B76-59962E143170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-144" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>Permitir cadastro de usuários, login, recuperação de senha e acesso seguro a áreas específicas.</t>
   </si>
   <si>
-    <t>Exibir lista de parques, trilhas e pontos turísticos com imagens e detalhes (PARNASO, PETP, Montanhas de Teresópolis).</t>
-  </si>
-  <si>
     <t>Disponibilizar formulário simples para agendamento com guias (nome, contato, mensagem e destino).</t>
   </si>
   <si>
@@ -63,12 +60,6 @@
     <t>Ser responsivo, rápido, fluido e compatível com diferentes dispositivos e navegadores.</t>
   </si>
   <si>
-    <t>Manter interface clara, intuitiva, legível e coerente com paleta de verde escuro.</t>
-  </si>
-  <si>
-    <t>Adotar segurança com senhas criptografadas, proteção de dados e sigilo de informações.</t>
-  </si>
-  <si>
     <t>Código modular, organizado e fácil de manter, permitindo melhorias futuras.</t>
   </si>
   <si>
@@ -199,6 +190,15 @@
   </si>
   <si>
     <t>INTERNO</t>
+  </si>
+  <si>
+    <t>Exibir lista de parques, trilhas e pontos turísticos com imagens e detalhes na aba PARQUES (PARNASO, PETP, Montanhas de Teresópolis).</t>
+  </si>
+  <si>
+    <t>Manter interface clara, intuitiva, legível e coerente com paleta de verde escuro, fazendo uma alusão a flora de Teresópolis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apresentar a logo do Terê Verde também ao rodapé da página. </t>
   </si>
 </sst>
 </file>
@@ -672,7 +672,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +680,7 @@
     <col min="1" max="1" width="25.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="135.85546875" customWidth="1"/>
+    <col min="4" max="4" width="146.85546875" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
   </cols>
@@ -699,13 +699,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -716,19 +716,19 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -739,19 +739,19 @@
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -762,19 +762,19 @@
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -785,19 +785,19 @@
         <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -808,19 +808,19 @@
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -831,19 +831,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -851,22 +851,22 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -874,22 +874,22 @@
         <v>4</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -897,22 +897,22 @@
         <v>4</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -920,22 +920,22 @@
         <v>4</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -943,252 +943,252 @@
         <v>4</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1198,6 +1198,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="58" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/requisitos/requisitos_tereverde.xlsx
+++ b/requisitos/requisitos_tereverde.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PEDRO\Desktop\PROJETO MVP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FA2F6D6-0E28-43CF-9B76-59962E143170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B43BBDF-A6BD-4BEC-9877-2FA519196EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-144" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>Disponibilizar formulário simples para agendamento com guias (nome, contato, mensagem e destino).</t>
   </si>
   <si>
-    <t>Oferecer navegação intuitiva entre Home, Sobre, Cadastro e Login, com elementos interativos como carrossel e botões.</t>
-  </si>
-  <si>
     <t>Não Funcional</t>
   </si>
   <si>
@@ -199,6 +196,9 @@
   </si>
   <si>
     <t xml:space="preserve">Apresentar a logo do Terê Verde também ao rodapé da página. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apresentar a aba de eventos, onde vai apresentar os principais eventos do município. </t>
   </si>
 </sst>
 </file>
@@ -672,7 +672,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,13 +699,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>44</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -716,19 +716,19 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -739,19 +739,19 @@
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -762,19 +762,19 @@
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -785,19 +785,19 @@
         <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -808,19 +808,19 @@
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -831,19 +831,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -851,22 +851,22 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -874,22 +874,22 @@
         <v>4</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -897,22 +897,22 @@
         <v>4</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -920,22 +920,22 @@
         <v>4</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -943,252 +943,252 @@
         <v>4</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
